--- a/Results.xlsx
+++ b/Results.xlsx
@@ -179,11 +179,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
